--- a/ExcelDatas/Datas/item.xlsx
+++ b/ExcelDatas/Datas/item.xlsx
@@ -9,12 +9,25 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>##var</t>
   </si>
@@ -44,58 +57,6 @@
     <t>name</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>esc</t>
-    </r>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>upgrade_to_item_id</t>
-  </si>
-  <si>
-    <t>expire_time</t>
-  </si>
-  <si>
-    <t>batch_useable</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>exchange_stream</t>
-  </si>
-  <si>
-    <t>exchange_list</t>
-  </si>
-  <si>
-    <t>exchange_column</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>num</t>
-  </si>
-  <si>
     <t>##type</t>
   </si>
   <si>
@@ -105,34 +66,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>int#ref=TbItem</t>
-  </si>
-  <si>
-    <t>datetime?</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>item.EQuality</t>
-  </si>
-  <si>
-    <t>item.ItemExchange</t>
-  </si>
-  <si>
-    <t>(list#sep=;),item.ItemExchange</t>
-  </si>
-  <si>
     <t>##group</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>c,s</t>
   </si>
   <si>
     <t>##</t>
@@ -163,194 +97,40 @@
     <t>名字</t>
   </si>
   <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>价格</t>
-  </si>
-  <si>
-    <t>引用当前表</t>
-  </si>
-  <si>
-    <t>过期时间</t>
-  </si>
-  <si>
-    <t>能否批量使用</t>
-  </si>
-  <si>
-    <t>品质</t>
-  </si>
-  <si>
-    <t>道具兑换配置</t>
-  </si>
-  <si>
     <t>发型</t>
   </si>
   <si>
-    <t>初始发型</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ull</t>
-    </r>
-  </si>
-  <si>
-    <t>WHITE</t>
-  </si>
-  <si>
-    <t>10001,2</t>
-  </si>
-  <si>
-    <t>10001,2;10002,3</t>
-  </si>
-  <si>
     <t>外套</t>
   </si>
   <si>
-    <t>初始外套</t>
-  </si>
-  <si>
-    <t>10002,2</t>
-  </si>
-  <si>
-    <t>10001,2;10002,4</t>
-  </si>
-  <si>
     <t>上衣</t>
   </si>
   <si>
-    <t>初始上衣</t>
-  </si>
-  <si>
-    <t>BLUE</t>
-  </si>
-  <si>
-    <t>10003,3</t>
-  </si>
-  <si>
-    <t>10001,2;10002,5</t>
-  </si>
-  <si>
     <t>裙子</t>
   </si>
   <si>
-    <t>初始下装</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>10004,3</t>
-  </si>
-  <si>
-    <t>10001,2;10002,6</t>
-  </si>
-  <si>
     <t>袜子</t>
   </si>
   <si>
-    <t>初始袜子</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>10005,4</t>
-  </si>
-  <si>
-    <t>10001,2;10002,7</t>
-  </si>
-  <si>
     <t>鞋子</t>
   </si>
   <si>
-    <t>初始鞋子</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>PURPLE</t>
-  </si>
-  <si>
-    <t>10006,4</t>
-  </si>
-  <si>
-    <t>10001,2;10002,8</t>
-  </si>
-  <si>
     <t>发饰</t>
   </si>
   <si>
-    <t>初始发饰</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>10007,5</t>
-  </si>
-  <si>
-    <t>10001,2;10002,9</t>
-  </si>
-  <si>
     <t>中秋节发饰</t>
   </si>
   <si>
-    <t>10008,5</t>
-  </si>
-  <si>
-    <t>10001,2;10002,10</t>
-  </si>
-  <si>
     <t>中秋节鞋子</t>
   </si>
   <si>
-    <t>10009,6</t>
-  </si>
-  <si>
-    <t>10001,2;10002,11</t>
-  </si>
-  <si>
     <t>礼包</t>
-  </si>
-  <si>
-    <t>中秋节礼包</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>RED</t>
-  </si>
-  <si>
-    <t>10000,6</t>
-  </si>
-  <si>
-    <t>10001,2;10002,12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -704,7 +484,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -716,32 +496,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -884,7 +638,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -896,34 +650,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1008,36 +762,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="22" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="22" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="23" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="23" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1357,10 +1089,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AI15"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1368,19 +1100,9 @@
     <col min="1" max="1" width="9.225" customWidth="1"/>
     <col min="2" max="2" width="6.75" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="12.3833333333333" customWidth="1"/>
-    <col min="5" max="5" width="5.5" customWidth="1"/>
-    <col min="6" max="6" width="18.75" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="13.1333333333333" customWidth="1"/>
-    <col min="9" max="9" width="12.3833333333333" customWidth="1"/>
-    <col min="10" max="10" width="17.8833333333333" customWidth="1"/>
-    <col min="11" max="11" width="28" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="5.13333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:35">
+    <row r="1" s="1" customFormat="1" spans="1:25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1390,35 +1112,17 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="9"/>
+      <c r="D1" s="4"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
       <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
@@ -1430,38 +1134,24 @@
       <c r="W1"/>
       <c r="X1"/>
       <c r="Y1"/>
-      <c r="Z1"/>
-      <c r="AA1"/>
-      <c r="AB1"/>
-      <c r="AC1"/>
-      <c r="AD1"/>
-      <c r="AE1"/>
-      <c r="AF1"/>
-      <c r="AG1"/>
-      <c r="AH1"/>
-      <c r="AI1"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:35">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="9"/>
+      <c r="D2" s="4"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
@@ -1473,56 +1163,28 @@
       <c r="W2"/>
       <c r="X2"/>
       <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-      <c r="AB2"/>
-      <c r="AC2"/>
-      <c r="AD2"/>
-      <c r="AE2"/>
-      <c r="AF2"/>
-      <c r="AG2"/>
-      <c r="AH2"/>
-      <c r="AI2"/>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:35">
-      <c r="A3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="13"/>
-      <c r="N3" s="9"/>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:25">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
@@ -1534,44 +1196,24 @@
       <c r="W3"/>
       <c r="X3"/>
       <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
-      <c r="AB3"/>
-      <c r="AC3"/>
-      <c r="AD3"/>
-      <c r="AE3"/>
-      <c r="AF3"/>
-      <c r="AG3"/>
-      <c r="AH3"/>
-      <c r="AI3"/>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:35">
-      <c r="A4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="9"/>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:25">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
@@ -1583,54 +1225,28 @@
       <c r="W4"/>
       <c r="X4"/>
       <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
-      <c r="AC4"/>
-      <c r="AD4"/>
-      <c r="AE4"/>
-      <c r="AF4"/>
-      <c r="AG4"/>
-      <c r="AH4"/>
-      <c r="AI4"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:35">
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:25">
       <c r="A5" s="3" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
@@ -1642,402 +1258,88 @@
       <c r="W5"/>
       <c r="X5"/>
       <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-      <c r="AB5"/>
-      <c r="AC5"/>
-      <c r="AD5"/>
-      <c r="AE5"/>
-      <c r="AF5"/>
-      <c r="AG5"/>
-      <c r="AH5"/>
-      <c r="AI5"/>
-    </row>
-    <row r="6" spans="2:13">
+    </row>
+    <row r="6" spans="2:3">
       <c r="B6">
         <v>10000</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-      <c r="F6">
-        <v>10001</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" s="14">
-        <v>10001</v>
-      </c>
-      <c r="M6" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
       <c r="B7">
         <v>10001</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7">
-        <v>10002</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" s="14">
-        <v>10001</v>
-      </c>
-      <c r="M7" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
       <c r="B8">
         <v>10002</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8">
-        <v>100</v>
-      </c>
-      <c r="F8">
-        <v>10003</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" s="14">
-        <v>10001</v>
-      </c>
-      <c r="M8" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
       <c r="B9">
         <v>10003</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9">
-        <v>100</v>
-      </c>
-      <c r="F9">
-        <v>10004</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" s="14">
-        <v>10001</v>
-      </c>
-      <c r="M9" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
       <c r="B10">
         <v>10004</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10">
-        <v>100</v>
-      </c>
-      <c r="F10">
-        <v>10005</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="L10" s="14">
-        <v>10001</v>
-      </c>
-      <c r="M10" s="14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
       <c r="B11">
         <v>10005</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11">
-        <v>100</v>
-      </c>
-      <c r="F11">
-        <v>10006</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" t="s">
-        <v>66</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L11" s="14">
-        <v>10001</v>
-      </c>
-      <c r="M11" s="14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13">
+      <c r="C11" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
       <c r="B12">
         <v>10006</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12">
-        <v>100</v>
-      </c>
-      <c r="F12">
-        <v>10007</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J12" t="s">
-        <v>71</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="L12" s="14">
-        <v>10001</v>
-      </c>
-      <c r="M12" s="14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
       <c r="B13">
         <v>10007</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13">
-        <v>200</v>
-      </c>
-      <c r="F13">
-        <v>10008</v>
-      </c>
-      <c r="G13" s="6">
-        <v>44479.9999884259</v>
-      </c>
-      <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J13" t="s">
-        <v>74</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L13" s="14">
-        <v>10001</v>
-      </c>
-      <c r="M13" s="14">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13">
+      <c r="C13" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
       <c r="B14">
         <v>10008</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14">
-        <v>300</v>
-      </c>
-      <c r="F14">
-        <v>10009</v>
-      </c>
-      <c r="G14" s="6">
-        <v>44480.9999884259</v>
-      </c>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J14" t="s">
-        <v>77</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="L14" s="14">
-        <v>10001</v>
-      </c>
-      <c r="M14" s="14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13">
+      <c r="C14" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
       <c r="B15">
         <v>10009</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15">
-        <v>100</v>
-      </c>
-      <c r="F15">
-        <v>10000</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J15" t="s">
-        <v>83</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="L15" s="14">
-        <v>10001</v>
-      </c>
-      <c r="M15" s="14">
-        <v>11</v>
+      <c r="C15" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L3:M3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
